--- a/src/test/resources/Run_Manager_Terminate_Contract.xlsx
+++ b/src/test/resources/Run_Manager_Terminate_Contract.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LAST\EJAR_UAT_release\run managers\run managers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BA446-A703-491E-A313-2E496AF4F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DDC2F0-EF46-4D7E-8E27-AC4569B641E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1163">
   <si>
     <t>P_Key</t>
   </si>
@@ -6852,21 +6852,6 @@
     <t>Terminate Contract From Tenant</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify bo manager is able click on calender icon and view the calendar pop up  to select
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(التاريخ المطلوب لإنهاء العقد)</t>
-    </r>
-  </si>
-  <si>
     <t>Module 5</t>
   </si>
   <si>
@@ -8099,6 +8084,669 @@
   </si>
   <si>
     <t>Precondition</t>
+  </si>
+  <si>
+    <t>Contracts_TC_01</t>
+  </si>
+  <si>
+    <t>Contracts_TC_02</t>
+  </si>
+  <si>
+    <t>Contracts_TC_03</t>
+  </si>
+  <si>
+    <t>Contracts_TC_04</t>
+  </si>
+  <si>
+    <t>Contracts_TC_05</t>
+  </si>
+  <si>
+    <t>Contracts_TC_06</t>
+  </si>
+  <si>
+    <t>Contracts_TC_07</t>
+  </si>
+  <si>
+    <t>Contracts_TC_08</t>
+  </si>
+  <si>
+    <t>Contracts_TC_09</t>
+  </si>
+  <si>
+    <t>Contracts_TC_10</t>
+  </si>
+  <si>
+    <t>Contracts_TC_11</t>
+  </si>
+  <si>
+    <t>Contracts_TC_12</t>
+  </si>
+  <si>
+    <t>Contracts_TC_13</t>
+  </si>
+  <si>
+    <t>Contracts_TC_14</t>
+  </si>
+  <si>
+    <t>Contracts_TC_15</t>
+  </si>
+  <si>
+    <t>Contracts_TC_16</t>
+  </si>
+  <si>
+    <t>Contracts_TC_17</t>
+  </si>
+  <si>
+    <t>Contracts_TC_18</t>
+  </si>
+  <si>
+    <t>Contracts_TC_19</t>
+  </si>
+  <si>
+    <t>Contracts_TC_20</t>
+  </si>
+  <si>
+    <t>Contracts_TC_21</t>
+  </si>
+  <si>
+    <t>Contracts_TC_22</t>
+  </si>
+  <si>
+    <t>Contracts_TC_23</t>
+  </si>
+  <si>
+    <t>Contracts_TC_24</t>
+  </si>
+  <si>
+    <t>Contracts_TC_25</t>
+  </si>
+  <si>
+    <t>Contracts_TC_26</t>
+  </si>
+  <si>
+    <t>Contracts_TC_27</t>
+  </si>
+  <si>
+    <t>Contracts_TC_28</t>
+  </si>
+  <si>
+    <t>Contracts_TC_29</t>
+  </si>
+  <si>
+    <t>Contracts_TC_30</t>
+  </si>
+  <si>
+    <t>Contracts_TC_31</t>
+  </si>
+  <si>
+    <t>Contracts_TC_32</t>
+  </si>
+  <si>
+    <t>Contracts_TC_33</t>
+  </si>
+  <si>
+    <t>Contracts_TC_34</t>
+  </si>
+  <si>
+    <t>Contracts_TC_35</t>
+  </si>
+  <si>
+    <t>Contracts_TC_36</t>
+  </si>
+  <si>
+    <t>Contracts_TC_37</t>
+  </si>
+  <si>
+    <t>Contracts_TC_38</t>
+  </si>
+  <si>
+    <t>Contracts_TC_39</t>
+  </si>
+  <si>
+    <t>Contracts_TC_40</t>
+  </si>
+  <si>
+    <t>Contracts_TC_41</t>
+  </si>
+  <si>
+    <t>Contracts_TC_42</t>
+  </si>
+  <si>
+    <t>Contracts_TC_43</t>
+  </si>
+  <si>
+    <t>Contracts_TC_44</t>
+  </si>
+  <si>
+    <t>Contracts_TC_45</t>
+  </si>
+  <si>
+    <t>Contracts_TC_46</t>
+  </si>
+  <si>
+    <t>Contracts_TC_47</t>
+  </si>
+  <si>
+    <t>Contracts_TC_48</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_01</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_02</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_03</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_04</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_05</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_06</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_07</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_08</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_09</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_10</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_11</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_12</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_13</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_14</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_15</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_16</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_17</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_18</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_19</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_20</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_21</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_22</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_23</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_24</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_25</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_26</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_27</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_28</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_29</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_30</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_31</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_32</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_33</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_34</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_35</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_36</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_37</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_38</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_39</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_40</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_41</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_42</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_43</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_44</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_45</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_46</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_47</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_48</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_49</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_50</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_51</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_52</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_53</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_54</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_55</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_56</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_57</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_58</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_59</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_60</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_61</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_62</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_63</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_64</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_65</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_66</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_67</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_68</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_69</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_70</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_71</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_72</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_73</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_74</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_75</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_76</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_77</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_78</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_79</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_80</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_81</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_82</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_83</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_84</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_85</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_86</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_87</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_88</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_89</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_90</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_91</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_92</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_93</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_94</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_95</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_96</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_97</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_98</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_99</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_100</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_101</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_102</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_103</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_104</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_105</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_106</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_107</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_108</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_109</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_110</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_111</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_112</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_113</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_114</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_115</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_116</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_117</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_118</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_119</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_120</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_121</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_122</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_123</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_124</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_125</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_126</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_127</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_128</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_129</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_130</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_131</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_132</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_133</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_134</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_135</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_136</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_137</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_138</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_139</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_140</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_141</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_142</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_143</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_144</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_145</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_146</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_147</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_148</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_149</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_150</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_151</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_152</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_153</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_154</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_155</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_156</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_157</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_158</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_159</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_160</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_161</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_162</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_163</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_164</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_165</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_166</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_167</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_168</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_169</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_170</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_171</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_172</t>
+  </si>
+  <si>
+    <t>TerminateContract_TC_173</t>
   </si>
 </sst>
 </file>
@@ -8923,9 +9571,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8963,7 +9611,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9069,7 +9717,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9211,7 +9859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9222,11 +9870,11 @@
   <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B217" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5:J6"/>
+      <selection pane="bottomRight" activeCell="G226" sqref="G226:G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9237,7 +9885,7 @@
     <col min="4" max="4" width="73" style="2" customWidth="1"/>
     <col min="5" max="5" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -9285,15 +9933,15 @@
         <v>11</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -9325,19 +9973,19 @@
         <v>57</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E3" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>766</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>767</v>
-      </c>
       <c r="G3" s="46" t="s">
-        <v>780</v>
+        <v>942</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>246</v>
@@ -9367,16 +10015,16 @@
         <v>578</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>828</v>
+        <v>943</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>246</v>
@@ -9406,16 +10054,16 @@
         <v>579</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>829</v>
+        <v>944</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>246</v>
@@ -9442,19 +10090,19 @@
         <v>57</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>781</v>
+        <v>945</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>246</v>
@@ -9484,16 +10132,16 @@
         <v>578</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>830</v>
+        <v>946</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>246</v>
@@ -9523,16 +10171,16 @@
         <v>579</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>831</v>
+        <v>947</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>246</v>
@@ -9556,22 +10204,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E9" s="46" t="s">
+        <v>831</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>832</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>833</v>
-      </c>
       <c r="G9" s="46" t="s">
-        <v>782</v>
+        <v>948</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>246</v>
@@ -9595,22 +10243,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D10" s="46" t="s">
+        <v>833</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>834</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="F10" s="46" t="s">
         <v>835</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>836</v>
-      </c>
       <c r="G10" s="46" t="s">
-        <v>834</v>
+        <v>949</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>246</v>
@@ -9634,22 +10282,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D11" s="46" t="s">
+        <v>836</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>837</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="F11" s="46" t="s">
         <v>838</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>839</v>
-      </c>
       <c r="G11" s="46" t="s">
-        <v>837</v>
+        <v>950</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>246</v>
@@ -9673,22 +10321,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>789</v>
+        <v>951</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>246</v>
@@ -9712,22 +10360,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D13" s="46" t="s">
+        <v>840</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>841</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>842</v>
-      </c>
       <c r="F13" s="46" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>246</v>
@@ -9751,22 +10399,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D14" s="46" t="s">
+        <v>842</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>843</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>844</v>
-      </c>
       <c r="F14" s="46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>843</v>
+        <v>953</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>246</v>
@@ -9790,22 +10438,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E15" s="46" t="s">
+        <v>844</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>845</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>846</v>
-      </c>
       <c r="G15" s="46" t="s">
-        <v>783</v>
+        <v>954</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>246</v>
@@ -9829,22 +10477,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D16" s="46" t="s">
+        <v>846</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>847</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="F16" s="46" t="s">
         <v>848</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>849</v>
-      </c>
       <c r="G16" s="46" t="s">
-        <v>847</v>
+        <v>955</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>246</v>
@@ -9868,22 +10516,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D17" s="46" t="s">
+        <v>849</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>850</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="F17" s="46" t="s">
         <v>851</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>852</v>
-      </c>
       <c r="G17" s="46" t="s">
-        <v>850</v>
+        <v>956</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>246</v>
@@ -9907,22 +10555,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>784</v>
+        <v>957</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>246</v>
@@ -9946,22 +10594,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D19" s="46" t="s">
+        <v>853</v>
+      </c>
+      <c r="E19" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="E19" s="46" t="s">
-        <v>855</v>
-      </c>
       <c r="F19" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>854</v>
+        <v>958</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>246</v>
@@ -9985,22 +10633,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D20" s="46" t="s">
+        <v>855</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>856</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>857</v>
-      </c>
       <c r="F20" s="46" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>856</v>
+        <v>959</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>246</v>
@@ -10024,22 +10672,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>785</v>
+        <v>960</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>246</v>
@@ -10063,22 +10711,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D22" s="46" t="s">
+        <v>858</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>859</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>860</v>
-      </c>
       <c r="F22" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>859</v>
+        <v>961</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>246</v>
@@ -10102,22 +10750,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D23" s="46" t="s">
+        <v>860</v>
+      </c>
+      <c r="E23" s="46" t="s">
         <v>861</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>862</v>
-      </c>
       <c r="F23" s="46" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>861</v>
+        <v>962</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>246</v>
@@ -10141,22 +10789,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>788</v>
+        <v>963</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>246</v>
@@ -10180,22 +10828,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C25" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D25" s="46" t="s">
+        <v>863</v>
+      </c>
+      <c r="E25" s="46" t="s">
         <v>864</v>
       </c>
-      <c r="E25" s="46" t="s">
-        <v>865</v>
-      </c>
       <c r="F25" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>864</v>
+        <v>964</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>246</v>
@@ -10219,22 +10867,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D26" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="E26" s="46" t="s">
         <v>866</v>
       </c>
-      <c r="E26" s="46" t="s">
-        <v>867</v>
-      </c>
       <c r="F26" s="46" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>866</v>
+        <v>965</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>246</v>
@@ -10258,22 +10906,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E27" s="46" t="s">
+        <v>867</v>
+      </c>
+      <c r="F27" s="46" t="s">
         <v>868</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>869</v>
-      </c>
       <c r="G27" s="46" t="s">
-        <v>786</v>
+        <v>966</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>246</v>
@@ -10297,22 +10945,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C28" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D28" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="E28" s="46" t="s">
         <v>870</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="F28" s="46" t="s">
         <v>871</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>872</v>
-      </c>
       <c r="G28" s="46" t="s">
-        <v>870</v>
+        <v>967</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>246</v>
@@ -10336,22 +10984,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D29" s="46" t="s">
+        <v>872</v>
+      </c>
+      <c r="E29" s="46" t="s">
         <v>873</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="F29" s="46" t="s">
         <v>874</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>875</v>
-      </c>
       <c r="G29" s="46" t="s">
-        <v>873</v>
+        <v>968</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>246</v>
@@ -10375,22 +11023,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>787</v>
+        <v>969</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>246</v>
@@ -10414,22 +11062,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D31" s="46" t="s">
+        <v>876</v>
+      </c>
+      <c r="E31" s="46" t="s">
         <v>877</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>878</v>
-      </c>
       <c r="F31" s="46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>877</v>
+        <v>970</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>246</v>
@@ -10453,22 +11101,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D32" s="46" t="s">
+        <v>878</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>879</v>
       </c>
-      <c r="E32" s="46" t="s">
-        <v>880</v>
-      </c>
       <c r="F32" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>879</v>
+        <v>971</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>246</v>
@@ -10492,22 +11140,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>790</v>
+        <v>972</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>246</v>
@@ -10531,22 +11179,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C34" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D34" s="46" t="s">
+        <v>881</v>
+      </c>
+      <c r="E34" s="46" t="s">
         <v>882</v>
       </c>
-      <c r="E34" s="46" t="s">
-        <v>883</v>
-      </c>
       <c r="F34" s="46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G34" s="46" t="s">
-        <v>882</v>
+        <v>973</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>246</v>
@@ -10570,22 +11218,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C35" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D35" s="46" t="s">
+        <v>883</v>
+      </c>
+      <c r="E35" s="46" t="s">
         <v>884</v>
       </c>
-      <c r="E35" s="46" t="s">
-        <v>885</v>
-      </c>
       <c r="F35" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>884</v>
+        <v>974</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>246</v>
@@ -10609,22 +11257,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E36" s="46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>791</v>
+        <v>975</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>246</v>
@@ -10648,22 +11296,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C37" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D37" s="46" t="s">
+        <v>886</v>
+      </c>
+      <c r="E37" s="46" t="s">
         <v>887</v>
       </c>
-      <c r="E37" s="46" t="s">
-        <v>888</v>
-      </c>
       <c r="F37" s="46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>887</v>
+        <v>976</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>246</v>
@@ -10687,22 +11335,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C38" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D38" s="46" t="s">
+        <v>888</v>
+      </c>
+      <c r="E38" s="46" t="s">
         <v>889</v>
       </c>
-      <c r="E38" s="46" t="s">
-        <v>890</v>
-      </c>
       <c r="F38" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>889</v>
+        <v>977</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>246</v>
@@ -10726,22 +11374,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>792</v>
+        <v>978</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>246</v>
@@ -10765,22 +11413,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C40" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>891</v>
+        <v>979</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>246</v>
@@ -10804,22 +11452,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C41" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>892</v>
+        <v>980</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>246</v>
@@ -10843,22 +11491,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>793</v>
+        <v>981</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>246</v>
@@ -10882,22 +11530,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C43" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G43" s="46" t="s">
-        <v>893</v>
+        <v>982</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>246</v>
@@ -10921,22 +11569,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C44" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>894</v>
+        <v>983</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>246</v>
@@ -10960,22 +11608,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E45" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="F45" s="46" t="s">
         <v>895</v>
       </c>
-      <c r="F45" s="46" t="s">
-        <v>896</v>
-      </c>
       <c r="G45" s="46" t="s">
-        <v>794</v>
+        <v>984</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>246</v>
@@ -10999,22 +11647,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C46" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D46" s="46" t="s">
+        <v>896</v>
+      </c>
+      <c r="E46" s="46" t="s">
         <v>897</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="F46" s="46" t="s">
         <v>898</v>
       </c>
-      <c r="F46" s="46" t="s">
-        <v>899</v>
-      </c>
       <c r="G46" s="46" t="s">
-        <v>897</v>
+        <v>985</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>246</v>
@@ -11038,22 +11686,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C47" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D47" s="46" t="s">
+        <v>899</v>
+      </c>
+      <c r="E47" s="46" t="s">
         <v>900</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="F47" s="46" t="s">
         <v>901</v>
       </c>
-      <c r="F47" s="46" t="s">
-        <v>902</v>
-      </c>
       <c r="G47" s="46" t="s">
-        <v>900</v>
+        <v>986</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>246</v>
@@ -11077,22 +11725,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>795</v>
+        <v>987</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>246</v>
@@ -11116,22 +11764,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C49" s="46" t="s">
         <v>578</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>903</v>
+        <v>988</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>246</v>
@@ -11155,22 +11803,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C50" s="46" t="s">
         <v>579</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F50" s="46" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>904</v>
+        <v>989</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>246</v>
@@ -11239,8 +11887,8 @@
       <c r="F52" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G52" s="40" t="s">
-        <v>285</v>
+      <c r="G52" s="46" t="s">
+        <v>990</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>246</v>
@@ -11278,8 +11926,8 @@
       <c r="F53" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G53" s="40" t="s">
-        <v>283</v>
+      <c r="G53" s="46" t="s">
+        <v>991</v>
       </c>
       <c r="H53" s="38" t="s">
         <v>246</v>
@@ -11317,8 +11965,8 @@
       <c r="F54" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G54" s="40" t="s">
-        <v>286</v>
+      <c r="G54" s="46" t="s">
+        <v>992</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>246</v>
@@ -11356,8 +12004,8 @@
       <c r="F55" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G55" s="40" t="s">
-        <v>287</v>
+      <c r="G55" s="46" t="s">
+        <v>993</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>246</v>
@@ -11395,8 +12043,8 @@
       <c r="F56" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G56" s="40" t="s">
-        <v>288</v>
+      <c r="G56" s="46" t="s">
+        <v>994</v>
       </c>
       <c r="H56" s="38" t="s">
         <v>246</v>
@@ -11423,7 +12071,7 @@
         <v>581</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D57" s="40" t="s">
         <v>289</v>
@@ -11434,8 +12082,8 @@
       <c r="F57" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G57" s="40" t="s">
-        <v>289</v>
+      <c r="G57" s="46" t="s">
+        <v>995</v>
       </c>
       <c r="H57" s="38" t="s">
         <v>246</v>
@@ -11473,8 +12121,8 @@
       <c r="F58" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G58" s="54" t="s">
-        <v>290</v>
+      <c r="G58" s="46" t="s">
+        <v>996</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>246</v>
@@ -11512,8 +12160,8 @@
       <c r="F59" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G59" s="54" t="s">
-        <v>584</v>
+      <c r="G59" s="46" t="s">
+        <v>997</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>246</v>
@@ -11551,8 +12199,8 @@
       <c r="F60" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G60" s="40" t="s">
-        <v>292</v>
+      <c r="G60" s="46" t="s">
+        <v>998</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>246</v>
@@ -11579,7 +12227,7 @@
         <v>581</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D61" s="40" t="s">
         <v>293</v>
@@ -11590,8 +12238,8 @@
       <c r="F61" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G61" s="40" t="s">
-        <v>293</v>
+      <c r="G61" s="46" t="s">
+        <v>999</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>246</v>
@@ -11629,8 +12277,8 @@
       <c r="F62" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G62" s="40" t="s">
-        <v>294</v>
+      <c r="G62" s="46" t="s">
+        <v>1000</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>246</v>
@@ -11668,8 +12316,8 @@
       <c r="F63" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G63" s="40" t="s">
-        <v>295</v>
+      <c r="G63" s="46" t="s">
+        <v>1001</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>246</v>
@@ -11707,8 +12355,8 @@
       <c r="F64" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="40" t="s">
-        <v>296</v>
+      <c r="G64" s="46" t="s">
+        <v>1002</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>246</v>
@@ -11746,8 +12394,8 @@
       <c r="F65" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G65" s="40" t="s">
-        <v>297</v>
+      <c r="G65" s="46" t="s">
+        <v>1003</v>
       </c>
       <c r="H65" s="38" t="s">
         <v>246</v>
@@ -11785,8 +12433,8 @@
       <c r="F66" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G66" s="40" t="s">
-        <v>298</v>
+      <c r="G66" s="46" t="s">
+        <v>1004</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>246</v>
@@ -11824,8 +12472,8 @@
       <c r="F67" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G67" s="40" t="s">
-        <v>299</v>
+      <c r="G67" s="46" t="s">
+        <v>1005</v>
       </c>
       <c r="H67" s="38" t="s">
         <v>246</v>
@@ -11863,8 +12511,8 @@
       <c r="F68" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G68" s="40" t="s">
-        <v>300</v>
+      <c r="G68" s="46" t="s">
+        <v>1006</v>
       </c>
       <c r="H68" s="38" t="s">
         <v>246</v>
@@ -11902,8 +12550,8 @@
       <c r="F69" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G69" s="40" t="s">
-        <v>301</v>
+      <c r="G69" s="46" t="s">
+        <v>1007</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>246</v>
@@ -11941,8 +12589,8 @@
       <c r="F70" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G70" s="54" t="s">
-        <v>302</v>
+      <c r="G70" s="46" t="s">
+        <v>1008</v>
       </c>
       <c r="H70" s="38" t="s">
         <v>246</v>
@@ -11980,8 +12628,8 @@
       <c r="F71" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G71" s="54" t="s">
-        <v>303</v>
+      <c r="G71" s="46" t="s">
+        <v>1009</v>
       </c>
       <c r="H71" s="38" t="s">
         <v>246</v>
@@ -12019,8 +12667,8 @@
       <c r="F72" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G72" s="54" t="s">
-        <v>304</v>
+      <c r="G72" s="46" t="s">
+        <v>1010</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>246</v>
@@ -12058,8 +12706,8 @@
       <c r="F73" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G73" s="40" t="s">
-        <v>305</v>
+      <c r="G73" s="46" t="s">
+        <v>1011</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>246</v>
@@ -12097,8 +12745,8 @@
       <c r="F74" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G74" s="40" t="s">
-        <v>306</v>
+      <c r="G74" s="46" t="s">
+        <v>1012</v>
       </c>
       <c r="H74" s="38" t="s">
         <v>246</v>
@@ -12136,8 +12784,8 @@
       <c r="F75" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G75" s="52" t="s">
-        <v>307</v>
+      <c r="G75" s="46" t="s">
+        <v>1013</v>
       </c>
       <c r="H75" s="38" t="s">
         <v>246</v>
@@ -12175,8 +12823,8 @@
       <c r="F76" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G76" s="52" t="s">
-        <v>308</v>
+      <c r="G76" s="46" t="s">
+        <v>1014</v>
       </c>
       <c r="H76" s="38" t="s">
         <v>246</v>
@@ -12214,8 +12862,8 @@
       <c r="F77" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G77" s="52" t="s">
-        <v>309</v>
+      <c r="G77" s="46" t="s">
+        <v>1015</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>246</v>
@@ -12253,8 +12901,8 @@
       <c r="F78" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G78" s="40" t="s">
-        <v>310</v>
+      <c r="G78" s="46" t="s">
+        <v>1016</v>
       </c>
       <c r="H78" s="38" t="s">
         <v>246</v>
@@ -12292,8 +12940,8 @@
       <c r="F79" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G79" s="40" t="s">
-        <v>311</v>
+      <c r="G79" s="46" t="s">
+        <v>1017</v>
       </c>
       <c r="H79" s="38" t="s">
         <v>246</v>
@@ -12331,8 +12979,8 @@
       <c r="F80" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G80" s="40" t="s">
-        <v>312</v>
+      <c r="G80" s="46" t="s">
+        <v>1018</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>246</v>
@@ -12370,8 +13018,8 @@
       <c r="F81" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G81" s="40" t="s">
-        <v>313</v>
+      <c r="G81" s="46" t="s">
+        <v>1019</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>246</v>
@@ -12409,8 +13057,8 @@
       <c r="F82" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="40" t="s">
-        <v>314</v>
+      <c r="G82" s="46" t="s">
+        <v>1020</v>
       </c>
       <c r="H82" s="38" t="s">
         <v>246</v>
@@ -12448,8 +13096,8 @@
       <c r="F83" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G83" s="40" t="s">
-        <v>315</v>
+      <c r="G83" s="46" t="s">
+        <v>1021</v>
       </c>
       <c r="H83" s="38" t="s">
         <v>246</v>
@@ -12487,8 +13135,8 @@
       <c r="F84" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G84" s="40" t="s">
-        <v>316</v>
+      <c r="G84" s="46" t="s">
+        <v>1022</v>
       </c>
       <c r="H84" s="38" t="s">
         <v>246</v>
@@ -12526,8 +13174,8 @@
       <c r="F85" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G85" s="40" t="s">
-        <v>317</v>
+      <c r="G85" s="46" t="s">
+        <v>1023</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>246</v>
@@ -12565,8 +13213,8 @@
       <c r="F86" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G86" s="40" t="s">
-        <v>318</v>
+      <c r="G86" s="46" t="s">
+        <v>1024</v>
       </c>
       <c r="H86" s="38" t="s">
         <v>246</v>
@@ -12604,8 +13252,8 @@
       <c r="F87" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G87" s="40" t="s">
-        <v>319</v>
+      <c r="G87" s="46" t="s">
+        <v>1025</v>
       </c>
       <c r="H87" s="38" t="s">
         <v>246</v>
@@ -12643,8 +13291,8 @@
       <c r="F88" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G88" s="40" t="s">
-        <v>320</v>
+      <c r="G88" s="46" t="s">
+        <v>1026</v>
       </c>
       <c r="H88" s="38" t="s">
         <v>246</v>
@@ -12682,8 +13330,8 @@
       <c r="F89" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G89" s="40" t="s">
-        <v>321</v>
+      <c r="G89" s="46" t="s">
+        <v>1027</v>
       </c>
       <c r="H89" s="38" t="s">
         <v>246</v>
@@ -12721,8 +13369,8 @@
       <c r="F90" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G90" s="40" t="s">
-        <v>322</v>
+      <c r="G90" s="46" t="s">
+        <v>1028</v>
       </c>
       <c r="H90" s="38" t="s">
         <v>246</v>
@@ -12760,8 +13408,8 @@
       <c r="F91" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G91" s="40" t="s">
-        <v>323</v>
+      <c r="G91" s="46" t="s">
+        <v>1029</v>
       </c>
       <c r="H91" s="38" t="s">
         <v>246</v>
@@ -12799,8 +13447,8 @@
       <c r="F92" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G92" s="40" t="s">
-        <v>324</v>
+      <c r="G92" s="46" t="s">
+        <v>1030</v>
       </c>
       <c r="H92" s="38" t="s">
         <v>246</v>
@@ -12838,8 +13486,8 @@
       <c r="F93" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G93" s="40" t="s">
-        <v>325</v>
+      <c r="G93" s="46" t="s">
+        <v>1031</v>
       </c>
       <c r="H93" s="38" t="s">
         <v>246</v>
@@ -12877,8 +13525,8 @@
       <c r="F94" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G94" s="40" t="s">
-        <v>326</v>
+      <c r="G94" s="46" t="s">
+        <v>1032</v>
       </c>
       <c r="H94" s="38" t="s">
         <v>246</v>
@@ -12905,10 +13553,10 @@
         <v>581</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D95" s="58" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E95" s="46" t="s">
         <v>442</v>
@@ -12916,8 +13564,8 @@
       <c r="F95" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G95" s="58" t="s">
-        <v>770</v>
+      <c r="G95" s="46" t="s">
+        <v>1033</v>
       </c>
       <c r="H95" s="38" t="s">
         <v>246</v>
@@ -12944,19 +13592,19 @@
         <v>581</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D96" s="56" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>443</v>
       </c>
       <c r="F96" s="46" t="s">
-        <v>771</v>
-      </c>
-      <c r="G96" s="56" t="s">
-        <v>772</v>
+        <v>770</v>
+      </c>
+      <c r="G96" s="46" t="s">
+        <v>1034</v>
       </c>
       <c r="H96" s="38" t="s">
         <v>246</v>
@@ -12977,7 +13625,7 @@
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B97" s="49" t="s">
         <v>265</v>
@@ -13025,8 +13673,8 @@
       <c r="F98" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G98" s="40" t="s">
-        <v>328</v>
+      <c r="G98" s="46" t="s">
+        <v>1035</v>
       </c>
       <c r="H98" s="38" t="s">
         <v>246</v>
@@ -13064,8 +13712,8 @@
       <c r="F99" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G99" s="40" t="s">
-        <v>329</v>
+      <c r="G99" s="46" t="s">
+        <v>1036</v>
       </c>
       <c r="H99" s="38" t="s">
         <v>246</v>
@@ -13103,8 +13751,8 @@
       <c r="F100" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G100" s="40" t="s">
-        <v>330</v>
+      <c r="G100" s="46" t="s">
+        <v>1037</v>
       </c>
       <c r="H100" s="38" t="s">
         <v>246</v>
@@ -13142,8 +13790,8 @@
       <c r="F101" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G101" s="40" t="s">
-        <v>331</v>
+      <c r="G101" s="46" t="s">
+        <v>1038</v>
       </c>
       <c r="H101" s="38" t="s">
         <v>246</v>
@@ -13181,8 +13829,8 @@
       <c r="F102" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G102" s="40" t="s">
-        <v>288</v>
+      <c r="G102" s="46" t="s">
+        <v>1039</v>
       </c>
       <c r="H102" s="38" t="s">
         <v>246</v>
@@ -13220,8 +13868,8 @@
       <c r="F103" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G103" s="40" t="s">
-        <v>289</v>
+      <c r="G103" s="46" t="s">
+        <v>1040</v>
       </c>
       <c r="H103" s="38" t="s">
         <v>246</v>
@@ -13259,8 +13907,8 @@
       <c r="F104" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G104" s="54" t="s">
-        <v>332</v>
+      <c r="G104" s="46" t="s">
+        <v>1041</v>
       </c>
       <c r="H104" s="38" t="s">
         <v>246</v>
@@ -13298,8 +13946,8 @@
       <c r="F105" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G105" s="54" t="s">
-        <v>333</v>
+      <c r="G105" s="46" t="s">
+        <v>1042</v>
       </c>
       <c r="H105" s="38" t="s">
         <v>246</v>
@@ -13337,8 +13985,8 @@
       <c r="F106" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G106" s="40" t="s">
-        <v>334</v>
+      <c r="G106" s="46" t="s">
+        <v>1043</v>
       </c>
       <c r="H106" s="38" t="s">
         <v>246</v>
@@ -13376,8 +14024,8 @@
       <c r="F107" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G107" s="40" t="s">
-        <v>335</v>
+      <c r="G107" s="46" t="s">
+        <v>1044</v>
       </c>
       <c r="H107" s="38" t="s">
         <v>246</v>
@@ -13415,8 +14063,8 @@
       <c r="F108" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G108" s="40" t="s">
-        <v>294</v>
+      <c r="G108" s="46" t="s">
+        <v>1045</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>246</v>
@@ -13454,8 +14102,8 @@
       <c r="F109" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G109" s="40" t="s">
-        <v>295</v>
+      <c r="G109" s="46" t="s">
+        <v>1046</v>
       </c>
       <c r="H109" s="38" t="s">
         <v>246</v>
@@ -13493,8 +14141,8 @@
       <c r="F110" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G110" s="40" t="s">
-        <v>296</v>
+      <c r="G110" s="46" t="s">
+        <v>1047</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>246</v>
@@ -13532,8 +14180,8 @@
       <c r="F111" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G111" s="40" t="s">
-        <v>297</v>
+      <c r="G111" s="46" t="s">
+        <v>1048</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>246</v>
@@ -13571,8 +14219,8 @@
       <c r="F112" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G112" s="40" t="s">
-        <v>298</v>
+      <c r="G112" s="46" t="s">
+        <v>1049</v>
       </c>
       <c r="H112" s="38" t="s">
         <v>246</v>
@@ -13610,8 +14258,8 @@
       <c r="F113" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G113" s="40" t="s">
-        <v>299</v>
+      <c r="G113" s="46" t="s">
+        <v>1050</v>
       </c>
       <c r="H113" s="38" t="s">
         <v>246</v>
@@ -13649,8 +14297,8 @@
       <c r="F114" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G114" s="40" t="s">
-        <v>300</v>
+      <c r="G114" s="46" t="s">
+        <v>1051</v>
       </c>
       <c r="H114" s="38" t="s">
         <v>246</v>
@@ -13688,8 +14336,8 @@
       <c r="F115" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G115" s="40" t="s">
-        <v>336</v>
+      <c r="G115" s="46" t="s">
+        <v>1052</v>
       </c>
       <c r="H115" s="38" t="s">
         <v>246</v>
@@ -13727,8 +14375,8 @@
       <c r="F116" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G116" s="54" t="s">
-        <v>337</v>
+      <c r="G116" s="46" t="s">
+        <v>1053</v>
       </c>
       <c r="H116" s="38" t="s">
         <v>246</v>
@@ -13766,8 +14414,8 @@
       <c r="F117" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G117" s="54" t="s">
-        <v>338</v>
+      <c r="G117" s="46" t="s">
+        <v>1054</v>
       </c>
       <c r="H117" s="38" t="s">
         <v>246</v>
@@ -13805,8 +14453,8 @@
       <c r="F118" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G118" s="54" t="s">
-        <v>339</v>
+      <c r="G118" s="46" t="s">
+        <v>1055</v>
       </c>
       <c r="H118" s="38" t="s">
         <v>246</v>
@@ -13844,8 +14492,8 @@
       <c r="F119" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G119" s="40" t="s">
-        <v>340</v>
+      <c r="G119" s="46" t="s">
+        <v>1056</v>
       </c>
       <c r="H119" s="38" t="s">
         <v>246</v>
@@ -13883,8 +14531,8 @@
       <c r="F120" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G120" s="40" t="s">
-        <v>341</v>
+      <c r="G120" s="46" t="s">
+        <v>1057</v>
       </c>
       <c r="H120" s="38" t="s">
         <v>246</v>
@@ -13922,8 +14570,8 @@
       <c r="F121" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G121" s="52" t="s">
-        <v>342</v>
+      <c r="G121" s="46" t="s">
+        <v>1058</v>
       </c>
       <c r="H121" s="38" t="s">
         <v>246</v>
@@ -13961,8 +14609,8 @@
       <c r="F122" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G122" s="52" t="s">
-        <v>343</v>
+      <c r="G122" s="46" t="s">
+        <v>1059</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>246</v>
@@ -14000,8 +14648,8 @@
       <c r="F123" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G123" s="52" t="s">
-        <v>344</v>
+      <c r="G123" s="46" t="s">
+        <v>1060</v>
       </c>
       <c r="H123" s="38" t="s">
         <v>246</v>
@@ -14039,8 +14687,8 @@
       <c r="F124" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G124" s="40" t="s">
-        <v>345</v>
+      <c r="G124" s="46" t="s">
+        <v>1061</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>246</v>
@@ -14078,8 +14726,8 @@
       <c r="F125" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G125" s="40" t="s">
-        <v>346</v>
+      <c r="G125" s="46" t="s">
+        <v>1062</v>
       </c>
       <c r="H125" s="38" t="s">
         <v>246</v>
@@ -14117,8 +14765,8 @@
       <c r="F126" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G126" s="40" t="s">
-        <v>347</v>
+      <c r="G126" s="46" t="s">
+        <v>1063</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>246</v>
@@ -14156,8 +14804,8 @@
       <c r="F127" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G127" s="40" t="s">
-        <v>348</v>
+      <c r="G127" s="46" t="s">
+        <v>1064</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>246</v>
@@ -14195,8 +14843,8 @@
       <c r="F128" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G128" s="40" t="s">
-        <v>349</v>
+      <c r="G128" s="46" t="s">
+        <v>1065</v>
       </c>
       <c r="H128" s="38" t="s">
         <v>246</v>
@@ -14234,8 +14882,8 @@
       <c r="F129" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G129" s="40" t="s">
-        <v>350</v>
+      <c r="G129" s="46" t="s">
+        <v>1066</v>
       </c>
       <c r="H129" s="38" t="s">
         <v>246</v>
@@ -14273,8 +14921,8 @@
       <c r="F130" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G130" s="40" t="s">
-        <v>316</v>
+      <c r="G130" s="46" t="s">
+        <v>1067</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>246</v>
@@ -14312,8 +14960,8 @@
       <c r="F131" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G131" s="40" t="s">
-        <v>317</v>
+      <c r="G131" s="46" t="s">
+        <v>1068</v>
       </c>
       <c r="H131" s="38" t="s">
         <v>246</v>
@@ -14351,8 +14999,8 @@
       <c r="F132" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G132" s="40" t="s">
-        <v>318</v>
+      <c r="G132" s="46" t="s">
+        <v>1069</v>
       </c>
       <c r="H132" s="38" t="s">
         <v>246</v>
@@ -14390,8 +15038,8 @@
       <c r="F133" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G133" s="40" t="s">
-        <v>319</v>
+      <c r="G133" s="46" t="s">
+        <v>1070</v>
       </c>
       <c r="H133" s="38" t="s">
         <v>246</v>
@@ -14429,8 +15077,8 @@
       <c r="F134" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G134" s="40" t="s">
-        <v>320</v>
+      <c r="G134" s="46" t="s">
+        <v>1071</v>
       </c>
       <c r="H134" s="38" t="s">
         <v>246</v>
@@ -14468,8 +15116,8 @@
       <c r="F135" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G135" s="40" t="s">
-        <v>321</v>
+      <c r="G135" s="46" t="s">
+        <v>1072</v>
       </c>
       <c r="H135" s="38" t="s">
         <v>246</v>
@@ -14507,8 +15155,8 @@
       <c r="F136" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G136" s="40" t="s">
-        <v>322</v>
+      <c r="G136" s="46" t="s">
+        <v>1073</v>
       </c>
       <c r="H136" s="38" t="s">
         <v>246</v>
@@ -14546,8 +15194,8 @@
       <c r="F137" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G137" s="40" t="s">
-        <v>323</v>
+      <c r="G137" s="46" t="s">
+        <v>1074</v>
       </c>
       <c r="H137" s="38" t="s">
         <v>246</v>
@@ -14585,8 +15233,8 @@
       <c r="F138" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G138" s="40" t="s">
-        <v>324</v>
+      <c r="G138" s="46" t="s">
+        <v>1075</v>
       </c>
       <c r="H138" s="38" t="s">
         <v>246</v>
@@ -14624,8 +15272,8 @@
       <c r="F139" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G139" s="40" t="s">
-        <v>325</v>
+      <c r="G139" s="46" t="s">
+        <v>1076</v>
       </c>
       <c r="H139" s="38" t="s">
         <v>246</v>
@@ -14663,8 +15311,8 @@
       <c r="F140" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G140" s="40" t="s">
-        <v>326</v>
+      <c r="G140" s="46" t="s">
+        <v>1077</v>
       </c>
       <c r="H140" s="38" t="s">
         <v>246</v>
@@ -14691,10 +15339,10 @@
         <v>582</v>
       </c>
       <c r="C141" s="58" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D141" s="58" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E141" s="46" t="s">
         <v>487</v>
@@ -14702,8 +15350,8 @@
       <c r="F141" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G141" s="58" t="s">
-        <v>770</v>
+      <c r="G141" s="46" t="s">
+        <v>1078</v>
       </c>
       <c r="H141" s="38" t="s">
         <v>246</v>
@@ -14730,10 +15378,10 @@
         <v>582</v>
       </c>
       <c r="C142" s="56" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D142" s="56" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E142" s="46" t="s">
         <v>488</v>
@@ -14741,8 +15389,8 @@
       <c r="F142" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G142" s="56" t="s">
-        <v>760</v>
+      <c r="G142" s="46" t="s">
+        <v>1079</v>
       </c>
       <c r="H142" s="38" t="s">
         <v>246</v>
@@ -14811,8 +15459,8 @@
       <c r="F144" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G144" s="40" t="s">
-        <v>352</v>
+      <c r="G144" s="46" t="s">
+        <v>1080</v>
       </c>
       <c r="H144" s="38" t="s">
         <v>246</v>
@@ -14850,8 +15498,8 @@
       <c r="F145" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G145" s="40" t="s">
-        <v>353</v>
+      <c r="G145" s="46" t="s">
+        <v>1081</v>
       </c>
       <c r="H145" s="38" t="s">
         <v>246</v>
@@ -14889,8 +15537,8 @@
       <c r="F146" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G146" s="40" t="s">
-        <v>354</v>
+      <c r="G146" s="46" t="s">
+        <v>1082</v>
       </c>
       <c r="H146" s="38" t="s">
         <v>246</v>
@@ -14928,8 +15576,8 @@
       <c r="F147" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G147" s="40" t="s">
-        <v>355</v>
+      <c r="G147" s="46" t="s">
+        <v>1083</v>
       </c>
       <c r="H147" s="38" t="s">
         <v>246</v>
@@ -14967,8 +15615,8 @@
       <c r="F148" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G148" s="40" t="s">
-        <v>288</v>
+      <c r="G148" s="46" t="s">
+        <v>1084</v>
       </c>
       <c r="H148" s="38" t="s">
         <v>246</v>
@@ -15006,8 +15654,8 @@
       <c r="F149" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G149" s="40" t="s">
-        <v>289</v>
+      <c r="G149" s="46" t="s">
+        <v>1085</v>
       </c>
       <c r="H149" s="38" t="s">
         <v>246</v>
@@ -15045,8 +15693,8 @@
       <c r="F150" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G150" s="54" t="s">
-        <v>356</v>
+      <c r="G150" s="46" t="s">
+        <v>1086</v>
       </c>
       <c r="H150" s="38" t="s">
         <v>246</v>
@@ -15084,8 +15732,8 @@
       <c r="F151" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G151" s="54" t="s">
-        <v>357</v>
+      <c r="G151" s="46" t="s">
+        <v>1087</v>
       </c>
       <c r="H151" s="38" t="s">
         <v>246</v>
@@ -15123,8 +15771,8 @@
       <c r="F152" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G152" s="40" t="s">
-        <v>358</v>
+      <c r="G152" s="46" t="s">
+        <v>1088</v>
       </c>
       <c r="H152" s="38" t="s">
         <v>246</v>
@@ -15162,8 +15810,8 @@
       <c r="F153" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G153" s="40" t="s">
-        <v>359</v>
+      <c r="G153" s="46" t="s">
+        <v>1089</v>
       </c>
       <c r="H153" s="38" t="s">
         <v>246</v>
@@ -15201,8 +15849,8 @@
       <c r="F154" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G154" s="40" t="s">
-        <v>294</v>
+      <c r="G154" s="46" t="s">
+        <v>1090</v>
       </c>
       <c r="H154" s="38" t="s">
         <v>246</v>
@@ -15240,8 +15888,8 @@
       <c r="F155" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G155" s="40" t="s">
-        <v>295</v>
+      <c r="G155" s="46" t="s">
+        <v>1091</v>
       </c>
       <c r="H155" s="38" t="s">
         <v>246</v>
@@ -15279,8 +15927,8 @@
       <c r="F156" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G156" s="40" t="s">
-        <v>296</v>
+      <c r="G156" s="46" t="s">
+        <v>1092</v>
       </c>
       <c r="H156" s="38" t="s">
         <v>246</v>
@@ -15318,8 +15966,8 @@
       <c r="F157" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G157" s="40" t="s">
-        <v>297</v>
+      <c r="G157" s="46" t="s">
+        <v>1093</v>
       </c>
       <c r="H157" s="38" t="s">
         <v>246</v>
@@ -15357,8 +16005,8 @@
       <c r="F158" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G158" s="40" t="s">
-        <v>298</v>
+      <c r="G158" s="46" t="s">
+        <v>1094</v>
       </c>
       <c r="H158" s="38" t="s">
         <v>246</v>
@@ -15396,8 +16044,8 @@
       <c r="F159" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G159" s="40" t="s">
-        <v>299</v>
+      <c r="G159" s="46" t="s">
+        <v>1095</v>
       </c>
       <c r="H159" s="38" t="s">
         <v>246</v>
@@ -15435,8 +16083,8 @@
       <c r="F160" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G160" s="40" t="s">
-        <v>300</v>
+      <c r="G160" s="46" t="s">
+        <v>1096</v>
       </c>
       <c r="H160" s="38" t="s">
         <v>246</v>
@@ -15474,8 +16122,8 @@
       <c r="F161" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G161" s="40" t="s">
-        <v>360</v>
+      <c r="G161" s="46" t="s">
+        <v>1097</v>
       </c>
       <c r="H161" s="38" t="s">
         <v>246</v>
@@ -15513,8 +16161,8 @@
       <c r="F162" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G162" s="54" t="s">
-        <v>361</v>
+      <c r="G162" s="46" t="s">
+        <v>1098</v>
       </c>
       <c r="H162" s="38" t="s">
         <v>246</v>
@@ -15552,8 +16200,8 @@
       <c r="F163" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G163" s="54" t="s">
-        <v>362</v>
+      <c r="G163" s="46" t="s">
+        <v>1099</v>
       </c>
       <c r="H163" s="38" t="s">
         <v>246</v>
@@ -15591,8 +16239,8 @@
       <c r="F164" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G164" s="54" t="s">
-        <v>363</v>
+      <c r="G164" s="46" t="s">
+        <v>1100</v>
       </c>
       <c r="H164" s="38" t="s">
         <v>246</v>
@@ -15630,8 +16278,8 @@
       <c r="F165" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G165" s="40" t="s">
-        <v>364</v>
+      <c r="G165" s="46" t="s">
+        <v>1101</v>
       </c>
       <c r="H165" s="38" t="s">
         <v>246</v>
@@ -15669,8 +16317,8 @@
       <c r="F166" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G166" s="40" t="s">
-        <v>365</v>
+      <c r="G166" s="46" t="s">
+        <v>1102</v>
       </c>
       <c r="H166" s="38" t="s">
         <v>246</v>
@@ -15708,8 +16356,8 @@
       <c r="F167" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G167" s="52" t="s">
-        <v>366</v>
+      <c r="G167" s="46" t="s">
+        <v>1103</v>
       </c>
       <c r="H167" s="38" t="s">
         <v>246</v>
@@ -15747,8 +16395,8 @@
       <c r="F168" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G168" s="52" t="s">
-        <v>367</v>
+      <c r="G168" s="46" t="s">
+        <v>1104</v>
       </c>
       <c r="H168" s="38" t="s">
         <v>246</v>
@@ -15786,8 +16434,8 @@
       <c r="F169" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G169" s="52" t="s">
-        <v>368</v>
+      <c r="G169" s="46" t="s">
+        <v>1105</v>
       </c>
       <c r="H169" s="38" t="s">
         <v>246</v>
@@ -15825,8 +16473,8 @@
       <c r="F170" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G170" s="40" t="s">
-        <v>369</v>
+      <c r="G170" s="46" t="s">
+        <v>1106</v>
       </c>
       <c r="H170" s="38" t="s">
         <v>246</v>
@@ -15864,8 +16512,8 @@
       <c r="F171" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G171" s="40" t="s">
-        <v>370</v>
+      <c r="G171" s="46" t="s">
+        <v>1107</v>
       </c>
       <c r="H171" s="38" t="s">
         <v>246</v>
@@ -15903,8 +16551,8 @@
       <c r="F172" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G172" s="40" t="s">
-        <v>371</v>
+      <c r="G172" s="46" t="s">
+        <v>1108</v>
       </c>
       <c r="H172" s="38" t="s">
         <v>246</v>
@@ -15942,8 +16590,8 @@
       <c r="F173" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G173" s="40" t="s">
-        <v>372</v>
+      <c r="G173" s="46" t="s">
+        <v>1109</v>
       </c>
       <c r="H173" s="38" t="s">
         <v>246</v>
@@ -15981,8 +16629,8 @@
       <c r="F174" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G174" s="40" t="s">
-        <v>373</v>
+      <c r="G174" s="46" t="s">
+        <v>1110</v>
       </c>
       <c r="H174" s="38" t="s">
         <v>246</v>
@@ -16020,8 +16668,8 @@
       <c r="F175" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G175" s="40" t="s">
-        <v>374</v>
+      <c r="G175" s="46" t="s">
+        <v>1111</v>
       </c>
       <c r="H175" s="38" t="s">
         <v>246</v>
@@ -16059,8 +16707,8 @@
       <c r="F176" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G176" s="40" t="s">
-        <v>316</v>
+      <c r="G176" s="46" t="s">
+        <v>1112</v>
       </c>
       <c r="H176" s="38" t="s">
         <v>246</v>
@@ -16098,8 +16746,8 @@
       <c r="F177" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G177" s="40" t="s">
-        <v>317</v>
+      <c r="G177" s="46" t="s">
+        <v>1113</v>
       </c>
       <c r="H177" s="38" t="s">
         <v>246</v>
@@ -16137,8 +16785,8 @@
       <c r="F178" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G178" s="40" t="s">
-        <v>318</v>
+      <c r="G178" s="46" t="s">
+        <v>1114</v>
       </c>
       <c r="H178" s="38" t="s">
         <v>246</v>
@@ -16176,8 +16824,8 @@
       <c r="F179" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G179" s="40" t="s">
-        <v>319</v>
+      <c r="G179" s="46" t="s">
+        <v>1115</v>
       </c>
       <c r="H179" s="38" t="s">
         <v>246</v>
@@ -16215,8 +16863,8 @@
       <c r="F180" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G180" s="40" t="s">
-        <v>320</v>
+      <c r="G180" s="46" t="s">
+        <v>1116</v>
       </c>
       <c r="H180" s="38" t="s">
         <v>246</v>
@@ -16254,8 +16902,8 @@
       <c r="F181" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G181" s="40" t="s">
-        <v>321</v>
+      <c r="G181" s="46" t="s">
+        <v>1117</v>
       </c>
       <c r="H181" s="38" t="s">
         <v>246</v>
@@ -16293,8 +16941,8 @@
       <c r="F182" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G182" s="40" t="s">
-        <v>322</v>
+      <c r="G182" s="46" t="s">
+        <v>1118</v>
       </c>
       <c r="H182" s="38" t="s">
         <v>246</v>
@@ -16332,8 +16980,8 @@
       <c r="F183" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G183" s="40" t="s">
-        <v>323</v>
+      <c r="G183" s="46" t="s">
+        <v>1119</v>
       </c>
       <c r="H183" s="38" t="s">
         <v>246</v>
@@ -16371,8 +17019,8 @@
       <c r="F184" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G184" s="40" t="s">
-        <v>324</v>
+      <c r="G184" s="46" t="s">
+        <v>1120</v>
       </c>
       <c r="H184" s="38" t="s">
         <v>246</v>
@@ -16410,8 +17058,8 @@
       <c r="F185" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G185" s="40" t="s">
-        <v>325</v>
+      <c r="G185" s="46" t="s">
+        <v>1121</v>
       </c>
       <c r="H185" s="38" t="s">
         <v>246</v>
@@ -16449,8 +17097,8 @@
       <c r="F186" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G186" s="40" t="s">
-        <v>326</v>
+      <c r="G186" s="46" t="s">
+        <v>1122</v>
       </c>
       <c r="H186" s="38" t="s">
         <v>246</v>
@@ -16477,10 +17125,10 @@
         <v>583</v>
       </c>
       <c r="C187" s="58" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D187" s="58" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E187" s="46" t="s">
         <v>532</v>
@@ -16488,8 +17136,8 @@
       <c r="F187" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G187" s="58" t="s">
-        <v>770</v>
+      <c r="G187" s="46" t="s">
+        <v>1123</v>
       </c>
       <c r="H187" s="38" t="s">
         <v>246</v>
@@ -16516,10 +17164,10 @@
         <v>583</v>
       </c>
       <c r="C188" s="56" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D188" s="56" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E188" s="46" t="s">
         <v>533</v>
@@ -16527,8 +17175,8 @@
       <c r="F188" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G188" s="56" t="s">
-        <v>760</v>
+      <c r="G188" s="46" t="s">
+        <v>1124</v>
       </c>
       <c r="H188" s="38" t="s">
         <v>246</v>
@@ -16597,8 +17245,8 @@
       <c r="F190" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G190" s="40" t="s">
-        <v>375</v>
+      <c r="G190" s="46" t="s">
+        <v>1125</v>
       </c>
       <c r="H190" s="38" t="s">
         <v>246</v>
@@ -16636,8 +17284,8 @@
       <c r="F191" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G191" s="40" t="s">
-        <v>376</v>
+      <c r="G191" s="46" t="s">
+        <v>1126</v>
       </c>
       <c r="H191" s="38" t="s">
         <v>246</v>
@@ -16675,8 +17323,8 @@
       <c r="F192" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G192" s="40" t="s">
-        <v>377</v>
+      <c r="G192" s="46" t="s">
+        <v>1127</v>
       </c>
       <c r="H192" s="38" t="s">
         <v>246</v>
@@ -16714,8 +17362,8 @@
       <c r="F193" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G193" s="52" t="s">
-        <v>378</v>
+      <c r="G193" s="46" t="s">
+        <v>1128</v>
       </c>
       <c r="H193" s="38" t="s">
         <v>246</v>
@@ -16753,8 +17401,8 @@
       <c r="F194" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G194" s="52" t="s">
-        <v>379</v>
+      <c r="G194" s="46" t="s">
+        <v>1129</v>
       </c>
       <c r="H194" s="38" t="s">
         <v>246</v>
@@ -16792,8 +17440,8 @@
       <c r="F195" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G195" s="52" t="s">
-        <v>380</v>
+      <c r="G195" s="46" t="s">
+        <v>1130</v>
       </c>
       <c r="H195" s="38" t="s">
         <v>246</v>
@@ -16831,8 +17479,8 @@
       <c r="F196" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G196" s="52" t="s">
-        <v>381</v>
+      <c r="G196" s="46" t="s">
+        <v>1131</v>
       </c>
       <c r="H196" s="38" t="s">
         <v>246</v>
@@ -16870,8 +17518,8 @@
       <c r="F197" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G197" s="52" t="s">
-        <v>382</v>
+      <c r="G197" s="46" t="s">
+        <v>1132</v>
       </c>
       <c r="H197" s="38" t="s">
         <v>246</v>
@@ -16892,7 +17540,7 @@
     </row>
     <row r="198" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="48" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B198" s="49" t="s">
         <v>265</v>
@@ -16940,8 +17588,8 @@
       <c r="F199" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G199" s="52" t="s">
-        <v>383</v>
+      <c r="G199" s="46" t="s">
+        <v>1133</v>
       </c>
       <c r="H199" s="38" t="s">
         <v>246</v>
@@ -16979,8 +17627,8 @@
       <c r="F200" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G200" s="52" t="s">
-        <v>384</v>
+      <c r="G200" s="46" t="s">
+        <v>1134</v>
       </c>
       <c r="H200" s="38" t="s">
         <v>246</v>
@@ -17018,8 +17666,8 @@
       <c r="F201" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G201" s="52" t="s">
-        <v>385</v>
+      <c r="G201" s="46" t="s">
+        <v>1135</v>
       </c>
       <c r="H201" s="38" t="s">
         <v>246</v>
@@ -17057,8 +17705,8 @@
       <c r="F202" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G202" s="52" t="s">
-        <v>386</v>
+      <c r="G202" s="46" t="s">
+        <v>1136</v>
       </c>
       <c r="H202" s="38" t="s">
         <v>246</v>
@@ -17096,8 +17744,8 @@
       <c r="F203" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G203" s="40" t="s">
-        <v>387</v>
+      <c r="G203" s="46" t="s">
+        <v>1137</v>
       </c>
       <c r="H203" s="38" t="s">
         <v>246</v>
@@ -17135,8 +17783,8 @@
       <c r="F204" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G204" s="40" t="s">
-        <v>388</v>
+      <c r="G204" s="46" t="s">
+        <v>1138</v>
       </c>
       <c r="H204" s="38" t="s">
         <v>246</v>
@@ -17174,8 +17822,8 @@
       <c r="F205" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G205" s="40" t="s">
-        <v>389</v>
+      <c r="G205" s="46" t="s">
+        <v>1139</v>
       </c>
       <c r="H205" s="38" t="s">
         <v>246</v>
@@ -17213,8 +17861,8 @@
       <c r="F206" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="G206" s="40" t="s">
-        <v>390</v>
+      <c r="G206" s="46" t="s">
+        <v>1140</v>
       </c>
       <c r="H206" s="38" t="s">
         <v>246</v>
@@ -17235,7 +17883,7 @@
     </row>
     <row r="207" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="48" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B207" s="49" t="s">
         <v>265</v>
@@ -17283,8 +17931,8 @@
       <c r="F208" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G208" s="40" t="s">
-        <v>391</v>
+      <c r="G208" s="46" t="s">
+        <v>1141</v>
       </c>
       <c r="H208" s="38" t="s">
         <v>246</v>
@@ -17322,8 +17970,8 @@
       <c r="F209" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G209" s="40" t="s">
-        <v>392</v>
+      <c r="G209" s="46" t="s">
+        <v>1142</v>
       </c>
       <c r="H209" s="38" t="s">
         <v>246</v>
@@ -17361,8 +18009,8 @@
       <c r="F210" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G210" s="40" t="s">
-        <v>393</v>
+      <c r="G210" s="46" t="s">
+        <v>1143</v>
       </c>
       <c r="H210" s="38" t="s">
         <v>246</v>
@@ -17400,8 +18048,8 @@
       <c r="F211" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G211" s="52" t="s">
-        <v>378</v>
+      <c r="G211" s="46" t="s">
+        <v>1144</v>
       </c>
       <c r="H211" s="38" t="s">
         <v>246</v>
@@ -17439,8 +18087,8 @@
       <c r="F212" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G212" s="52" t="s">
-        <v>379</v>
+      <c r="G212" s="46" t="s">
+        <v>1145</v>
       </c>
       <c r="H212" s="38" t="s">
         <v>246</v>
@@ -17478,8 +18126,8 @@
       <c r="F213" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G213" s="52" t="s">
-        <v>380</v>
+      <c r="G213" s="46" t="s">
+        <v>1146</v>
       </c>
       <c r="H213" s="38" t="s">
         <v>246</v>
@@ -17517,8 +18165,8 @@
       <c r="F214" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G214" s="52" t="s">
-        <v>381</v>
+      <c r="G214" s="46" t="s">
+        <v>1147</v>
       </c>
       <c r="H214" s="38" t="s">
         <v>246</v>
@@ -17556,8 +18204,8 @@
       <c r="F215" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G215" s="52" t="s">
-        <v>382</v>
+      <c r="G215" s="46" t="s">
+        <v>1148</v>
       </c>
       <c r="H215" s="38" t="s">
         <v>246</v>
@@ -17578,7 +18226,7 @@
     </row>
     <row r="216" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B216" s="49" t="s">
         <v>265</v>
@@ -17626,8 +18274,8 @@
       <c r="F217" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G217" s="52" t="s">
-        <v>383</v>
+      <c r="G217" s="46" t="s">
+        <v>1149</v>
       </c>
       <c r="H217" s="38" t="s">
         <v>246</v>
@@ -17665,8 +18313,8 @@
       <c r="F218" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G218" s="52" t="s">
-        <v>384</v>
+      <c r="G218" s="46" t="s">
+        <v>1150</v>
       </c>
       <c r="H218" s="38" t="s">
         <v>246</v>
@@ -17704,8 +18352,8 @@
       <c r="F219" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G219" s="52" t="s">
-        <v>394</v>
+      <c r="G219" s="46" t="s">
+        <v>1151</v>
       </c>
       <c r="H219" s="38" t="s">
         <v>246</v>
@@ -17743,8 +18391,8 @@
       <c r="F220" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G220" s="52" t="s">
-        <v>395</v>
+      <c r="G220" s="46" t="s">
+        <v>1152</v>
       </c>
       <c r="H220" s="38" t="s">
         <v>246</v>
@@ -17782,8 +18430,8 @@
       <c r="F221" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G221" s="40" t="s">
-        <v>387</v>
+      <c r="G221" s="46" t="s">
+        <v>1153</v>
       </c>
       <c r="H221" s="38" t="s">
         <v>246</v>
@@ -17821,8 +18469,8 @@
       <c r="F222" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G222" s="40" t="s">
-        <v>388</v>
+      <c r="G222" s="46" t="s">
+        <v>1154</v>
       </c>
       <c r="H222" s="38" t="s">
         <v>246</v>
@@ -17860,8 +18508,8 @@
       <c r="F223" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G223" s="40" t="s">
-        <v>389</v>
+      <c r="G223" s="46" t="s">
+        <v>1155</v>
       </c>
       <c r="H223" s="38" t="s">
         <v>246</v>
@@ -17899,8 +18547,8 @@
       <c r="F224" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="G224" s="40" t="s">
-        <v>390</v>
+      <c r="G224" s="46" t="s">
+        <v>1156</v>
       </c>
       <c r="H224" s="38" t="s">
         <v>246</v>
@@ -17921,13 +18569,13 @@
     </row>
     <row r="225" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="48" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B225" s="49" t="s">
         <v>265</v>
       </c>
       <c r="C225" s="49" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D225" s="49"/>
       <c r="E225" s="50" t="s">
@@ -17958,19 +18606,19 @@
         <v>396</v>
       </c>
       <c r="C226" s="40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E226" s="46" t="s">
         <v>566</v>
       </c>
       <c r="F226" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="G226" s="40" t="s">
-        <v>929</v>
+        <v>586</v>
+      </c>
+      <c r="G226" s="46" t="s">
+        <v>1157</v>
       </c>
       <c r="H226" s="38" t="s">
         <v>246</v>
@@ -17997,19 +18645,19 @@
         <v>396</v>
       </c>
       <c r="C227" s="40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D227" s="40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E227" s="46" t="s">
         <v>567</v>
       </c>
       <c r="F227" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="G227" s="40" t="s">
-        <v>930</v>
+        <v>586</v>
+      </c>
+      <c r="G227" s="46" t="s">
+        <v>1158</v>
       </c>
       <c r="H227" s="38" t="s">
         <v>246</v>
@@ -18036,19 +18684,19 @@
         <v>396</v>
       </c>
       <c r="C228" s="40" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D228" s="40" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E228" s="46" t="s">
         <v>568</v>
       </c>
       <c r="F228" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="G228" s="40" t="s">
-        <v>931</v>
+        <v>586</v>
+      </c>
+      <c r="G228" s="46" t="s">
+        <v>1159</v>
       </c>
       <c r="H228" s="38" t="s">
         <v>246</v>
@@ -18075,19 +18723,19 @@
         <v>396</v>
       </c>
       <c r="C229" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D229" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E229" s="46" t="s">
         <v>569</v>
       </c>
       <c r="F229" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="G229" s="40" t="s">
-        <v>932</v>
+        <v>586</v>
+      </c>
+      <c r="G229" s="46" t="s">
+        <v>1160</v>
       </c>
       <c r="H229" s="38" t="s">
         <v>246</v>
@@ -18123,10 +18771,10 @@
         <v>570</v>
       </c>
       <c r="F230" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="G230" s="40" t="s">
-        <v>397</v>
+        <v>586</v>
+      </c>
+      <c r="G230" s="46" t="s">
+        <v>1161</v>
       </c>
       <c r="H230" s="38" t="s">
         <v>246</v>
@@ -18162,10 +18810,10 @@
         <v>571</v>
       </c>
       <c r="F231" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="G231" s="40" t="s">
-        <v>398</v>
+        <v>586</v>
+      </c>
+      <c r="G231" s="46" t="s">
+        <v>1162</v>
       </c>
       <c r="H231" s="38" t="s">
         <v>246</v>
@@ -18337,21 +18985,21 @@
         <v>252</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>245</v>
@@ -18372,7 +19020,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>245</v>
@@ -18393,23 +19041,23 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="65" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>915</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -18453,7 +19101,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>245</v>
@@ -18470,7 +19118,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>245</v>
@@ -18526,7 +19174,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>245</v>
@@ -18543,7 +19191,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>245</v>
@@ -18560,13 +19208,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -18618,16 +19266,16 @@
         <v>252</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -18668,16 +19316,16 @@
         <v>253</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>915</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -18688,7 +19336,7 @@
         <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -18758,16 +19406,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -18790,10 +19438,10 @@
         <v>254</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
@@ -18802,10 +19450,10 @@
         <v>261</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -18913,16 +19561,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -18945,10 +19593,10 @@
         <v>254</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
@@ -18957,10 +19605,10 @@
         <v>261</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -19061,13 +19709,13 @@
         <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -19087,10 +19735,10 @@
         <v>253</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>28</v>
@@ -19099,7 +19747,7 @@
         <v>261</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -19132,7 +19780,7 @@
         <v>245</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -19201,16 +19849,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -19221,7 +19869,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -19233,22 +19881,22 @@
         <v>254</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>261</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -19259,7 +19907,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>32</v>
@@ -19354,16 +20002,16 @@
         <v>56</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>806</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -19374,7 +20022,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -19383,25 +20031,25 @@
         <v>253</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>261</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -19436,7 +20084,7 @@
         <v>245</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>32</v>
@@ -22371,133 +23019,133 @@
         <v>252</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>274</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>707</v>
-      </c>
       <c r="P1" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S1" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>743</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="41" t="s">
         <v>751</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AK1" s="41" t="s">
         <v>752</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AL1" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="AO1" s="16" t="s">
         <v>755</v>
       </c>
-      <c r="AN1" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="AS1" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AT1" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="AV1" s="16" t="s">
         <v>718</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="AV1" s="16" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.3">
@@ -22517,13 +23165,13 @@
         <v>253</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -22536,94 +23184,94 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>728</v>
-      </c>
       <c r="AE2" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="AI2" s="6" t="s">
         <v>253</v>
       </c>
       <c r="AJ2" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="AK2" s="6" t="s">
-        <v>628</v>
-      </c>
       <c r="AL2" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AN2" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="AP2" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="AO2" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="AR2" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV2" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.3">
@@ -22643,13 +23291,13 @@
         <v>253</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -22662,86 +23310,86 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AR3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AT3" s="6"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22761,13 +23409,13 @@
         <v>253</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -22780,94 +23428,94 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V4" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC4" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="AC4" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>728</v>
-      </c>
       <c r="AE4" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AH4" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>253</v>
       </c>
       <c r="AJ4" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK4" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="AK4" s="6" t="s">
-        <v>628</v>
-      </c>
       <c r="AL4" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AN4" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="AP4" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="AO4" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="AQ4" s="6" t="s">
+      <c r="AR4" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="AS4" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="AR4" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="AS4" s="6" t="s">
+      <c r="AT4" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV4" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
@@ -22887,13 +23535,13 @@
         <v>253</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -22906,86 +23554,86 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AT5" s="6"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
@@ -23005,121 +23653,121 @@
         <v>253</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>275</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O6" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>723</v>
       </c>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z6" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AC6" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="AC6" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>728</v>
-      </c>
       <c r="AE6" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AG6" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AH6" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="AH6" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="AI6" s="6" t="s">
         <v>253</v>
       </c>
       <c r="AJ6" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AK6" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="AK6" s="6" t="s">
-        <v>628</v>
-      </c>
       <c r="AL6" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AM6" s="6"/>
       <c r="AN6" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AS6" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV6" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="AT6" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="AU6" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV6" s="6" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
@@ -23139,41 +23787,41 @@
         <v>253</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G7" s="62" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>275</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O7" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -23197,10 +23845,10 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AO7" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
@@ -23212,7 +23860,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>245</v>
@@ -23227,25 +23875,25 @@
         <v>253</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>275</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -23369,88 +24017,88 @@
         <v>252</v>
       </c>
       <c r="F1" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>588</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>589</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>593</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="42" t="s">
+        <v>633</v>
+      </c>
+      <c r="N1" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>634</v>
-      </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="Y1" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Z1" s="41" t="s">
         <v>606</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="AA1" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>608</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>609</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>610</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AF1" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="AF1" s="41" t="s">
-        <v>613</v>
-      </c>
       <c r="AG1" s="41" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -23470,72 +24118,72 @@
         <v>253</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="44" t="s">
+        <v>619</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="S2" s="44" t="s">
+      <c r="U2" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>253</v>
       </c>
       <c r="AB2" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>628</v>
       </c>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
@@ -23559,7 +24207,7 @@
         <v>253</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="26"/>
@@ -23587,7 +24235,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG3" s="6"/>
     </row>
@@ -23599,7 +24247,7 @@
         <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>32</v>
@@ -23608,13 +24256,13 @@
         <v>253</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>630</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -23638,13 +24286,13 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE4" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="AG4" s="6"/>
     </row>
@@ -23692,7 +24340,7 @@
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -23739,7 +24387,7 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -23786,7 +24434,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -23833,7 +24481,7 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -24011,7 +24659,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>245</v>
@@ -24046,13 +24694,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>32</v>
@@ -24365,76 +25013,76 @@
         <v>280</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>669</v>
-      </c>
       <c r="M1" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>658</v>
-      </c>
       <c r="P1" s="16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="V1" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="AC1" s="16" t="s">
-        <v>691</v>
-      </c>
       <c r="AD1" s="16" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG1" s="16" t="s">
         <v>274</v>
@@ -24443,24 +25091,24 @@
         <v>56</v>
       </c>
       <c r="AI1" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
         <v>818</v>
       </c>
-      <c r="AJ1" s="16" t="s">
-        <v>819</v>
-      </c>
       <c r="AK1" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="AL1" s="16" t="s">
         <v>821</v>
       </c>
-      <c r="AL1" s="16" t="s">
-        <v>822</v>
-      </c>
       <c r="AM1" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>245</v>
@@ -24484,10 +25132,10 @@
         <v>260</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>675</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -24496,54 +25144,54 @@
         <v>254</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V2" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="55" t="s">
         <v>695</v>
       </c>
-      <c r="Z2" s="55" t="s">
+      <c r="AA2" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>697</v>
       </c>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>275</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
@@ -24553,7 +25201,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>245</v>
@@ -24571,22 +25219,22 @@
         <v>277</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>677</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -24633,25 +25281,25 @@
         <v>253</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>279</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>677</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>277</v>
@@ -24660,25 +25308,25 @@
         <v>254</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -24697,16 +25345,16 @@
         <v>251</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
@@ -24717,7 +25365,7 @@
         <v>245</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>32</v>
@@ -24735,10 +25383,10 @@
         <v>277</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>675</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -24760,10 +25408,10 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
@@ -24824,31 +25472,31 @@
         <v>252</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>258</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -24868,22 +25516,22 @@
         <v>253</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>115</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>648</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -24906,16 +25554,16 @@
         <v>253</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>115</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -24931,7 +25579,7 @@
         <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>32</v>
@@ -24968,16 +25616,16 @@
         <v>253</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>115</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -24986,7 +25634,7 @@
         <v>261</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -25006,16 +25654,16 @@
         <v>253</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>115</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -25024,7 +25672,7 @@
         <v>261</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Run_Manager_Terminate_Contract.xlsx
+++ b/src/test/resources/Run_Manager_Terminate_Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DDC2F0-EF46-4D7E-8E27-AC4569B641E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F799D9-B21C-4D01-B87F-83CF7D584E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="1164">
   <si>
     <t>P_Key</t>
   </si>
@@ -8747,6 +8747,9 @@
   </si>
   <si>
     <t>TerminateContract_TC_173</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -9874,7 +9877,7 @@
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="G226" sqref="G226:G231"/>
+      <selection pane="bottomRight" activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11894,7 +11897,7 @@
         <v>246</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J52" s="47" t="s">
         <v>28</v>
@@ -11933,7 +11936,7 @@
         <v>246</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J53" s="47" t="s">
         <v>28</v>
@@ -11972,7 +11975,7 @@
         <v>246</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J54" s="47" t="s">
         <v>28</v>
@@ -12011,7 +12014,7 @@
         <v>246</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J55" s="47" t="s">
         <v>28</v>
@@ -12050,7 +12053,7 @@
         <v>246</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J56" s="47" t="s">
         <v>28</v>
@@ -12089,7 +12092,7 @@
         <v>246</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J57" s="47" t="s">
         <v>28</v>
@@ -12128,7 +12131,7 @@
         <v>246</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J58" s="47" t="s">
         <v>28</v>
@@ -12167,7 +12170,7 @@
         <v>246</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J59" s="47" t="s">
         <v>28</v>
@@ -12206,7 +12209,7 @@
         <v>246</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J60" s="47" t="s">
         <v>28</v>
@@ -12245,7 +12248,7 @@
         <v>246</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J61" s="47" t="s">
         <v>28</v>
@@ -12284,7 +12287,7 @@
         <v>246</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J62" s="47" t="s">
         <v>28</v>
@@ -12323,7 +12326,7 @@
         <v>246</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J63" s="47" t="s">
         <v>28</v>
@@ -12362,7 +12365,7 @@
         <v>246</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J64" s="47" t="s">
         <v>28</v>
@@ -12401,7 +12404,7 @@
         <v>246</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J65" s="47" t="s">
         <v>28</v>
@@ -12440,7 +12443,7 @@
         <v>246</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J66" s="47" t="s">
         <v>28</v>
@@ -12479,7 +12482,7 @@
         <v>246</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J67" s="47" t="s">
         <v>28</v>
@@ -12518,7 +12521,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J68" s="47" t="s">
         <v>28</v>
@@ -12557,7 +12560,7 @@
         <v>246</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J69" s="47" t="s">
         <v>28</v>
@@ -12596,7 +12599,7 @@
         <v>246</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J70" s="47" t="s">
         <v>28</v>
@@ -12635,7 +12638,7 @@
         <v>246</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J71" s="47" t="s">
         <v>28</v>
@@ -12674,7 +12677,7 @@
         <v>246</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J72" s="47" t="s">
         <v>28</v>
@@ -12713,7 +12716,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J73" s="47" t="s">
         <v>28</v>
@@ -12752,7 +12755,7 @@
         <v>246</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J74" s="47" t="s">
         <v>28</v>
@@ -12791,7 +12794,7 @@
         <v>246</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J75" s="47" t="s">
         <v>28</v>
@@ -12830,7 +12833,7 @@
         <v>246</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J76" s="47" t="s">
         <v>28</v>
@@ -12869,7 +12872,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J77" s="47" t="s">
         <v>28</v>
@@ -12908,7 +12911,7 @@
         <v>246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J78" s="47" t="s">
         <v>28</v>
@@ -12947,7 +12950,7 @@
         <v>246</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J79" s="47" t="s">
         <v>28</v>
@@ -12986,7 +12989,7 @@
         <v>246</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J80" s="47" t="s">
         <v>28</v>
@@ -13025,7 +13028,7 @@
         <v>246</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J81" s="47" t="s">
         <v>28</v>
@@ -13064,7 +13067,7 @@
         <v>246</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J82" s="47" t="s">
         <v>28</v>
@@ -13103,7 +13106,7 @@
         <v>246</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J83" s="47" t="s">
         <v>28</v>
@@ -13142,7 +13145,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J84" s="47" t="s">
         <v>28</v>
@@ -13181,7 +13184,7 @@
         <v>246</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J85" s="47" t="s">
         <v>28</v>
@@ -13220,7 +13223,7 @@
         <v>246</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J86" s="47" t="s">
         <v>28</v>
@@ -13259,7 +13262,7 @@
         <v>246</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J87" s="47" t="s">
         <v>28</v>
@@ -13298,7 +13301,7 @@
         <v>246</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J88" s="47" t="s">
         <v>28</v>
@@ -13337,7 +13340,7 @@
         <v>246</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J89" s="47" t="s">
         <v>28</v>
@@ -13376,7 +13379,7 @@
         <v>246</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J90" s="47" t="s">
         <v>28</v>
@@ -13415,7 +13418,7 @@
         <v>246</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J91" s="47" t="s">
         <v>28</v>
@@ -13454,7 +13457,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J92" s="47" t="s">
         <v>28</v>
@@ -13493,7 +13496,7 @@
         <v>246</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J93" s="47" t="s">
         <v>28</v>
@@ -13532,7 +13535,7 @@
         <v>246</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J94" s="47" t="s">
         <v>28</v>
@@ -13571,7 +13574,7 @@
         <v>246</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J95" s="47" t="s">
         <v>28</v>
@@ -13610,7 +13613,7 @@
         <v>246</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J96" s="47" t="s">
         <v>28</v>
@@ -13680,7 +13683,7 @@
         <v>246</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J98" s="47" t="s">
         <v>28</v>
@@ -13719,7 +13722,7 @@
         <v>246</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J99" s="47" t="s">
         <v>28</v>
@@ -13758,7 +13761,7 @@
         <v>246</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J100" s="47" t="s">
         <v>28</v>
@@ -13797,7 +13800,7 @@
         <v>246</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J101" s="47" t="s">
         <v>28</v>
@@ -13836,7 +13839,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J102" s="47" t="s">
         <v>28</v>
@@ -13875,7 +13878,7 @@
         <v>246</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J103" s="47" t="s">
         <v>28</v>
@@ -13914,7 +13917,7 @@
         <v>246</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J104" s="47" t="s">
         <v>28</v>
@@ -13953,7 +13956,7 @@
         <v>246</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J105" s="47" t="s">
         <v>28</v>
@@ -13992,7 +13995,7 @@
         <v>246</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J106" s="47" t="s">
         <v>28</v>
@@ -14031,7 +14034,7 @@
         <v>246</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J107" s="47" t="s">
         <v>28</v>
@@ -14070,7 +14073,7 @@
         <v>246</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J108" s="47" t="s">
         <v>28</v>
@@ -14109,7 +14112,7 @@
         <v>246</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J109" s="47" t="s">
         <v>28</v>
@@ -14148,7 +14151,7 @@
         <v>246</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J110" s="47" t="s">
         <v>28</v>
@@ -14187,7 +14190,7 @@
         <v>246</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J111" s="47" t="s">
         <v>28</v>
@@ -14226,7 +14229,7 @@
         <v>246</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J112" s="47" t="s">
         <v>28</v>
@@ -14265,7 +14268,7 @@
         <v>246</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J113" s="47" t="s">
         <v>28</v>
@@ -14304,7 +14307,7 @@
         <v>246</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J114" s="47" t="s">
         <v>28</v>
@@ -14343,7 +14346,7 @@
         <v>246</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J115" s="47" t="s">
         <v>28</v>
@@ -14382,7 +14385,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J116" s="47" t="s">
         <v>28</v>
@@ -14421,7 +14424,7 @@
         <v>246</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J117" s="47" t="s">
         <v>28</v>
@@ -14460,7 +14463,7 @@
         <v>246</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J118" s="47" t="s">
         <v>28</v>
@@ -14499,7 +14502,7 @@
         <v>246</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J119" s="47" t="s">
         <v>28</v>
@@ -14538,7 +14541,7 @@
         <v>246</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J120" s="47" t="s">
         <v>28</v>
@@ -14577,7 +14580,7 @@
         <v>246</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J121" s="47" t="s">
         <v>28</v>
@@ -14616,7 +14619,7 @@
         <v>246</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J122" s="47" t="s">
         <v>28</v>
@@ -14655,7 +14658,7 @@
         <v>246</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J123" s="47" t="s">
         <v>28</v>
@@ -14694,7 +14697,7 @@
         <v>246</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J124" s="47" t="s">
         <v>28</v>
@@ -14733,7 +14736,7 @@
         <v>246</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J125" s="47" t="s">
         <v>28</v>
@@ -14772,7 +14775,7 @@
         <v>246</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J126" s="47" t="s">
         <v>28</v>
@@ -14811,7 +14814,7 @@
         <v>246</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J127" s="47" t="s">
         <v>28</v>
@@ -14850,7 +14853,7 @@
         <v>246</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J128" s="47" t="s">
         <v>28</v>
@@ -14889,7 +14892,7 @@
         <v>246</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J129" s="47" t="s">
         <v>28</v>
@@ -14928,7 +14931,7 @@
         <v>246</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J130" s="47" t="s">
         <v>28</v>
@@ -14967,7 +14970,7 @@
         <v>246</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J131" s="47" t="s">
         <v>28</v>
@@ -15006,7 +15009,7 @@
         <v>246</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J132" s="47" t="s">
         <v>28</v>
@@ -15045,7 +15048,7 @@
         <v>246</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J133" s="47" t="s">
         <v>28</v>
@@ -15084,7 +15087,7 @@
         <v>246</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J134" s="47" t="s">
         <v>28</v>
@@ -15123,7 +15126,7 @@
         <v>246</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J135" s="47" t="s">
         <v>28</v>
@@ -15162,7 +15165,7 @@
         <v>246</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J136" s="47" t="s">
         <v>28</v>
@@ -15201,7 +15204,7 @@
         <v>246</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J137" s="47" t="s">
         <v>28</v>
@@ -15240,7 +15243,7 @@
         <v>246</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J138" s="47" t="s">
         <v>28</v>
@@ -15279,7 +15282,7 @@
         <v>246</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J139" s="47" t="s">
         <v>28</v>
@@ -15318,7 +15321,7 @@
         <v>246</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J140" s="47" t="s">
         <v>28</v>
@@ -15357,7 +15360,7 @@
         <v>246</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J141" s="47" t="s">
         <v>28</v>
@@ -15396,7 +15399,7 @@
         <v>246</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J142" s="47" t="s">
         <v>28</v>
@@ -15466,7 +15469,7 @@
         <v>246</v>
       </c>
       <c r="I144" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J144" s="47" t="s">
         <v>28</v>
@@ -15505,7 +15508,7 @@
         <v>246</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J145" s="47" t="s">
         <v>28</v>
@@ -15544,7 +15547,7 @@
         <v>246</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J146" s="47" t="s">
         <v>28</v>
@@ -15583,7 +15586,7 @@
         <v>246</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J147" s="47" t="s">
         <v>28</v>
@@ -15622,7 +15625,7 @@
         <v>246</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J148" s="47" t="s">
         <v>28</v>
@@ -15661,7 +15664,7 @@
         <v>246</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J149" s="47" t="s">
         <v>28</v>
@@ -15700,7 +15703,7 @@
         <v>246</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J150" s="47" t="s">
         <v>28</v>
@@ -15739,7 +15742,7 @@
         <v>246</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J151" s="47" t="s">
         <v>28</v>
@@ -15778,7 +15781,7 @@
         <v>246</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J152" s="47" t="s">
         <v>28</v>
@@ -15817,7 +15820,7 @@
         <v>246</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J153" s="47" t="s">
         <v>28</v>
@@ -15856,7 +15859,7 @@
         <v>246</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J154" s="47" t="s">
         <v>28</v>
@@ -15895,7 +15898,7 @@
         <v>246</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J155" s="47" t="s">
         <v>28</v>
@@ -15934,7 +15937,7 @@
         <v>246</v>
       </c>
       <c r="I156" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J156" s="47" t="s">
         <v>28</v>
@@ -15973,7 +15976,7 @@
         <v>246</v>
       </c>
       <c r="I157" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J157" s="47" t="s">
         <v>28</v>
@@ -16012,7 +16015,7 @@
         <v>246</v>
       </c>
       <c r="I158" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J158" s="47" t="s">
         <v>28</v>
@@ -16051,7 +16054,7 @@
         <v>246</v>
       </c>
       <c r="I159" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J159" s="47" t="s">
         <v>28</v>
@@ -16090,7 +16093,7 @@
         <v>246</v>
       </c>
       <c r="I160" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J160" s="47" t="s">
         <v>28</v>
@@ -16129,7 +16132,7 @@
         <v>246</v>
       </c>
       <c r="I161" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J161" s="47" t="s">
         <v>28</v>
@@ -16168,7 +16171,7 @@
         <v>246</v>
       </c>
       <c r="I162" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J162" s="47" t="s">
         <v>28</v>
@@ -16207,7 +16210,7 @@
         <v>246</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J163" s="47" t="s">
         <v>28</v>
@@ -16246,7 +16249,7 @@
         <v>246</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J164" s="47" t="s">
         <v>28</v>
@@ -16285,7 +16288,7 @@
         <v>246</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J165" s="47" t="s">
         <v>28</v>
@@ -16324,7 +16327,7 @@
         <v>246</v>
       </c>
       <c r="I166" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J166" s="47" t="s">
         <v>28</v>
@@ -16363,7 +16366,7 @@
         <v>246</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J167" s="47" t="s">
         <v>28</v>
@@ -16402,7 +16405,7 @@
         <v>246</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J168" s="47" t="s">
         <v>28</v>
@@ -16441,7 +16444,7 @@
         <v>246</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J169" s="47" t="s">
         <v>28</v>
@@ -16480,7 +16483,7 @@
         <v>246</v>
       </c>
       <c r="I170" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J170" s="47" t="s">
         <v>28</v>
@@ -16519,7 +16522,7 @@
         <v>246</v>
       </c>
       <c r="I171" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J171" s="47" t="s">
         <v>28</v>
@@ -16558,7 +16561,7 @@
         <v>246</v>
       </c>
       <c r="I172" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J172" s="47" t="s">
         <v>28</v>
@@ -16597,7 +16600,7 @@
         <v>246</v>
       </c>
       <c r="I173" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J173" s="47" t="s">
         <v>28</v>
@@ -16636,7 +16639,7 @@
         <v>246</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J174" s="47" t="s">
         <v>28</v>
@@ -16675,7 +16678,7 @@
         <v>246</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J175" s="47" t="s">
         <v>28</v>
@@ -16714,7 +16717,7 @@
         <v>246</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J176" s="47" t="s">
         <v>28</v>
@@ -16753,7 +16756,7 @@
         <v>246</v>
       </c>
       <c r="I177" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J177" s="47" t="s">
         <v>28</v>
@@ -16792,7 +16795,7 @@
         <v>246</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J178" s="47" t="s">
         <v>28</v>
@@ -16831,7 +16834,7 @@
         <v>246</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J179" s="47" t="s">
         <v>28</v>
@@ -16870,7 +16873,7 @@
         <v>246</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J180" s="47" t="s">
         <v>28</v>
@@ -16909,7 +16912,7 @@
         <v>246</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J181" s="47" t="s">
         <v>28</v>
@@ -16948,7 +16951,7 @@
         <v>246</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J182" s="47" t="s">
         <v>28</v>
@@ -16987,7 +16990,7 @@
         <v>246</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J183" s="47" t="s">
         <v>28</v>
@@ -17026,7 +17029,7 @@
         <v>246</v>
       </c>
       <c r="I184" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J184" s="47" t="s">
         <v>28</v>
@@ -17065,7 +17068,7 @@
         <v>246</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J185" s="47" t="s">
         <v>28</v>
@@ -17104,7 +17107,7 @@
         <v>246</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J186" s="47" t="s">
         <v>28</v>
@@ -17143,7 +17146,7 @@
         <v>246</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J187" s="47" t="s">
         <v>28</v>
@@ -17182,7 +17185,7 @@
         <v>246</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J188" s="47" t="s">
         <v>28</v>
@@ -17218,7 +17221,9 @@
       <c r="H189" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I189" s="51"/>
+      <c r="I189" s="38" t="s">
+        <v>1163</v>
+      </c>
       <c r="J189" s="51" t="s">
         <v>12</v>
       </c>
@@ -17252,7 +17257,7 @@
         <v>246</v>
       </c>
       <c r="I190" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J190" s="47" t="s">
         <v>28</v>
@@ -17291,7 +17296,7 @@
         <v>246</v>
       </c>
       <c r="I191" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J191" s="47" t="s">
         <v>28</v>
@@ -17330,7 +17335,7 @@
         <v>246</v>
       </c>
       <c r="I192" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J192" s="47" t="s">
         <v>28</v>
@@ -17369,7 +17374,7 @@
         <v>246</v>
       </c>
       <c r="I193" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J193" s="47" t="s">
         <v>28</v>
@@ -17408,7 +17413,7 @@
         <v>246</v>
       </c>
       <c r="I194" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J194" s="47" t="s">
         <v>28</v>
@@ -17447,7 +17452,7 @@
         <v>246</v>
       </c>
       <c r="I195" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J195" s="47" t="s">
         <v>28</v>
@@ -17486,7 +17491,7 @@
         <v>246</v>
       </c>
       <c r="I196" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J196" s="47" t="s">
         <v>28</v>
@@ -17525,7 +17530,7 @@
         <v>246</v>
       </c>
       <c r="I197" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J197" s="47" t="s">
         <v>28</v>
@@ -17595,7 +17600,7 @@
         <v>246</v>
       </c>
       <c r="I199" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J199" s="47" t="s">
         <v>28</v>
@@ -17634,7 +17639,7 @@
         <v>246</v>
       </c>
       <c r="I200" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J200" s="47" t="s">
         <v>28</v>
@@ -17673,7 +17678,7 @@
         <v>246</v>
       </c>
       <c r="I201" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J201" s="47" t="s">
         <v>28</v>
@@ -17712,7 +17717,7 @@
         <v>246</v>
       </c>
       <c r="I202" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J202" s="47" t="s">
         <v>28</v>
@@ -17751,7 +17756,7 @@
         <v>246</v>
       </c>
       <c r="I203" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J203" s="47" t="s">
         <v>28</v>
@@ -17790,7 +17795,7 @@
         <v>246</v>
       </c>
       <c r="I204" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J204" s="47" t="s">
         <v>28</v>
@@ -17829,7 +17834,7 @@
         <v>246</v>
       </c>
       <c r="I205" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J205" s="47" t="s">
         <v>28</v>
@@ -17868,7 +17873,7 @@
         <v>246</v>
       </c>
       <c r="I206" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J206" s="47" t="s">
         <v>28</v>
@@ -17938,7 +17943,7 @@
         <v>246</v>
       </c>
       <c r="I208" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J208" s="47" t="s">
         <v>28</v>
@@ -17977,7 +17982,7 @@
         <v>246</v>
       </c>
       <c r="I209" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J209" s="47" t="s">
         <v>28</v>
@@ -18016,7 +18021,7 @@
         <v>246</v>
       </c>
       <c r="I210" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J210" s="47" t="s">
         <v>28</v>
@@ -18055,7 +18060,7 @@
         <v>246</v>
       </c>
       <c r="I211" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J211" s="47" t="s">
         <v>28</v>
@@ -18094,7 +18099,7 @@
         <v>246</v>
       </c>
       <c r="I212" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J212" s="47" t="s">
         <v>28</v>
@@ -18133,7 +18138,7 @@
         <v>246</v>
       </c>
       <c r="I213" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J213" s="47" t="s">
         <v>28</v>
@@ -18172,7 +18177,7 @@
         <v>246</v>
       </c>
       <c r="I214" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J214" s="47" t="s">
         <v>28</v>
@@ -18211,7 +18216,7 @@
         <v>246</v>
       </c>
       <c r="I215" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J215" s="47" t="s">
         <v>28</v>
@@ -18281,7 +18286,7 @@
         <v>246</v>
       </c>
       <c r="I217" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J217" s="47" t="s">
         <v>28</v>
@@ -18320,7 +18325,7 @@
         <v>246</v>
       </c>
       <c r="I218" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J218" s="47" t="s">
         <v>28</v>
@@ -18359,7 +18364,7 @@
         <v>246</v>
       </c>
       <c r="I219" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J219" s="47" t="s">
         <v>28</v>
@@ -18398,7 +18403,7 @@
         <v>246</v>
       </c>
       <c r="I220" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J220" s="47" t="s">
         <v>28</v>
@@ -18437,7 +18442,7 @@
         <v>246</v>
       </c>
       <c r="I221" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J221" s="47" t="s">
         <v>28</v>
@@ -18476,7 +18481,7 @@
         <v>246</v>
       </c>
       <c r="I222" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J222" s="47" t="s">
         <v>28</v>
@@ -18515,7 +18520,7 @@
         <v>246</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J223" s="47" t="s">
         <v>28</v>
@@ -18554,7 +18559,7 @@
         <v>246</v>
       </c>
       <c r="I224" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J224" s="47" t="s">
         <v>28</v>
@@ -18624,7 +18629,7 @@
         <v>246</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J226" s="47" t="s">
         <v>28</v>
@@ -18663,7 +18668,7 @@
         <v>246</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J227" s="47" t="s">
         <v>28</v>
@@ -18702,7 +18707,7 @@
         <v>246</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J228" s="47" t="s">
         <v>28</v>
@@ -18741,7 +18746,7 @@
         <v>246</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J229" s="47" t="s">
         <v>28</v>
@@ -18780,7 +18785,7 @@
         <v>246</v>
       </c>
       <c r="I230" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J230" s="47" t="s">
         <v>28</v>
@@ -18819,7 +18824,7 @@
         <v>246</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>15</v>
+        <v>1163</v>
       </c>
       <c r="J231" s="47" t="s">
         <v>28</v>
